--- a/JC_Schedule.xlsx
+++ b/JC_Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisakelsey/Documents/Journal Club/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisakelsey/Documents/SouthamptonAstroJournalClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444A556F-C5FA-F948-9881-AA1AD3F1AED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9325C90-F97D-C949-8B9D-A2E43C298BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="1380" windowWidth="21680" windowHeight="22880" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
+    <workbookView xWindow="10960" yWindow="1640" windowWidth="36600" windowHeight="21680" activeTab="1" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="285">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Noel</t>
-  </si>
-  <si>
-    <t>James</t>
   </si>
   <si>
     <t>Pip</t>
@@ -880,6 +877,27 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/1908.09849.pdf</t>
+  </si>
+  <si>
+    <t>James L</t>
+  </si>
+  <si>
+    <t>James W</t>
+  </si>
+  <si>
+    <t>NGCM</t>
+  </si>
+  <si>
+    <t>Arianna</t>
+  </si>
+  <si>
+    <t>A 10,000-solar-mass black hole in the nucleus of a bulgeless dwarf galaxy</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1905.00145.pdf</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -943,7 +961,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +995,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8E8FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1222,6 +1246,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,6 +1263,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,68 +1329,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,10 +1348,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,6 +1367,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC8E8FF"/>
+      <color rgb="FFDAAEFF"/>
       <color rgb="FFF6E0FF"/>
     </mruColors>
   </colors>
@@ -1647,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089DE34-72B4-2540-AE8D-E1699D9CC6B2}">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1669,1946 +1704,1939 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="34">
+        <v>43370</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="32">
-        <v>43370</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35"/>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="33"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1">
-      <c r="A7" s="40">
+      <c r="A7" s="55">
         <v>43377</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="22"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="22"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="22"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="22"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="22"/>
       <c r="E11" s="10"/>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="37" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="34">
         <v>43384</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="35"/>
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33"/>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="35"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="35"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="57">
+        <v>43391</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="37"/>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="37"/>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D19" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="37"/>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="34">
+        <v>43398</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="35"/>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="35"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="35"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" ht="41" customHeight="1">
+      <c r="A27" s="55">
+        <v>43405</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="33"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="33"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="42">
-        <v>43391</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="35"/>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="36"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="32">
-        <v>43398</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="E27" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="33"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="33"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1">
-      <c r="A27" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B27" s="53" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="56"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="56"/>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="56"/>
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="41"/>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="56"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="34">
+        <v>43412</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="41"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="32">
-        <v>43412</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35"/>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="33"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="33"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="35"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="55">
+        <v>43419</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="33"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="40">
-        <v>43419</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="41"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="56"/>
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="41"/>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="D39" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="41"/>
+      <c r="A40" s="56"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="41"/>
+      <c r="A41" s="56"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="32">
+      <c r="A42" s="34">
         <v>43426</v>
       </c>
-      <c r="B42" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="45" t="s">
         <v>85</v>
       </c>
+      <c r="C42" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="D42" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="33"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="33"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="35"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="55">
+        <v>43433</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="56"/>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="56"/>
+      <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="56"/>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="33"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="33"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="40">
-        <v>43433</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="41"/>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="41"/>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="21" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="56"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="34">
+        <v>43440</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="35"/>
+      <c r="B53" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="35"/>
+      <c r="B54" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="35"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="35"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="34">
+        <v>43447</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="35"/>
+      <c r="B58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="35"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="35"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="35"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="55">
+        <v>43454</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="56"/>
+      <c r="B63" s="37"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="56"/>
+      <c r="B64" s="37"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="56"/>
+      <c r="B65" s="37"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="56"/>
+      <c r="B66" s="37"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="55">
+        <v>43461</v>
+      </c>
+      <c r="B67" s="37"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="56"/>
+      <c r="B68" s="37"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="56"/>
+      <c r="B69" s="37"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="56"/>
+      <c r="B70" s="37"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="56"/>
+      <c r="B71" s="37"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B72" s="37"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="35"/>
+      <c r="B73" s="37"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="35"/>
+      <c r="B74" s="37"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="35"/>
+      <c r="B75" s="37"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="34">
+        <v>43475</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="35"/>
+      <c r="B78" s="59"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="35"/>
+      <c r="B79" s="59"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="35"/>
+      <c r="B80" s="59"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="35"/>
+      <c r="B81" s="60"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="41"/>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="41"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="32">
-        <v>43440</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="33"/>
-      <c r="B53" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="50"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="33"/>
-      <c r="B54" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="33"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="33"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="32">
-        <v>43447</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="33"/>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="33"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="33"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="33"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="40">
-        <v>43454</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="41"/>
-      <c r="B63" s="35"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="41"/>
-      <c r="B64" s="35"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="35"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="35"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="40">
-        <v>43461</v>
-      </c>
-      <c r="B67" s="35"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="35"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="35"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="35"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="35"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="32">
-        <v>43468</v>
-      </c>
-      <c r="B72" s="35"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="33"/>
-      <c r="B73" s="35"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="33"/>
-      <c r="B74" s="35"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="35"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="36"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="32">
-        <v>43475</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="38"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="38"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="38"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="33"/>
-      <c r="B81" s="39"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="32">
-        <v>43482</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="35"/>
+      <c r="B83" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D83" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="34">
+        <v>43489</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="35"/>
+      <c r="B88" s="37"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="35"/>
+      <c r="B89" s="37"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="35"/>
+      <c r="B90" s="37"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="35"/>
+      <c r="B91" s="38"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="34">
+        <v>43496</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="35"/>
+      <c r="B93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="35"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="35"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="35"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="34">
+        <v>43503</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="35"/>
+      <c r="B98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="33"/>
-      <c r="B83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="33"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="33"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="33"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="32">
-        <v>43489</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="33"/>
-      <c r="B88" s="35"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="33"/>
-      <c r="B89" s="35"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="33"/>
-      <c r="B90" s="35"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="33"/>
-      <c r="B91" s="36"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="32">
-        <v>43496</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="33"/>
-      <c r="B93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="33"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="33"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="33"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="32">
-        <v>43503</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="33"/>
-      <c r="B98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="33"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="33"/>
+      <c r="A100" s="35"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="33"/>
+      <c r="A101" s="35"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="32">
+      <c r="A102" s="34">
         <v>43510</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="D102" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="35"/>
+      <c r="B103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="35"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="35"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="35"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="34">
+        <v>43517</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="33"/>
-      <c r="B103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="33"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="33"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="33"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="32">
-        <v>43517</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="35"/>
+      <c r="B108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="33"/>
-      <c r="B108" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="33"/>
+      <c r="A109" s="35"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="33"/>
+      <c r="A110" s="35"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="33"/>
+      <c r="A111" s="35"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="32">
+      <c r="A112" s="34">
         <v>43524</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="33"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="35"/>
+      <c r="B114" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D113" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="33"/>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="D114" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="35"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="35"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="34">
+        <v>43531</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="35"/>
+      <c r="B118" s="37"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="35"/>
+      <c r="B119" s="37"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="35"/>
+      <c r="B120" s="37"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="35"/>
+      <c r="B121" s="38"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="34">
+        <v>43538</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D114" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="33"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="33"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="32">
-        <v>43531</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="33"/>
-      <c r="B118" s="35"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="33"/>
-      <c r="B119" s="35"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="33"/>
-      <c r="B120" s="35"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="33"/>
-      <c r="B121" s="36"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="32">
-        <v>43538</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="D122" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="33"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="D123" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="33"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="D124" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E124" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="35"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="35"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="34">
+        <v>43545</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="35"/>
+      <c r="B128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="33"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="33"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="32">
-        <v>43545</v>
-      </c>
-      <c r="B127" s="2" t="s">
+      <c r="D128" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="35"/>
+      <c r="B129" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="33"/>
-      <c r="B128" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="21" t="s">
+      <c r="C129" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="35"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="35"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="34">
+        <v>43552</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="35"/>
+      <c r="B133" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D133" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="33"/>
-      <c r="B129" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="33"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="33"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="32">
-        <v>43552</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="33"/>
-      <c r="B133" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" s="12" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="35"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="35"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="35"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="34">
+        <v>43559</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D133" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="33"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="33"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="33"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="32">
-        <v>43559</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C137" s="7" t="s">
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="35"/>
+      <c r="B138" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D137" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E137" s="67" t="s">
+      <c r="C138" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="35"/>
+      <c r="B139" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="33"/>
-      <c r="B138" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C138" s="12" t="s">
+      <c r="C139" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D138" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="33"/>
-      <c r="B139" s="2" t="s">
+      <c r="D139" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="35"/>
+      <c r="B140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C140" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="35"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="34">
+        <v>43566</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="35"/>
+      <c r="B143" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D139" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="33"/>
-      <c r="B140" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="33"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="32">
-        <v>43566</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D142" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="33"/>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="33"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="D144" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="35"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="35"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="34">
+        <v>43573</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="35"/>
+      <c r="B148" s="37"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="35"/>
+      <c r="B149" s="37"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="35"/>
+      <c r="B150" s="37"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="35"/>
+      <c r="B151" s="38"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="34">
+        <v>43580</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D144" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="33"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="33"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="32">
-        <v>43573</v>
-      </c>
-      <c r="B147" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="33"/>
-      <c r="B148" s="35"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="33"/>
-      <c r="B149" s="35"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="33"/>
-      <c r="B150" s="35"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="33"/>
-      <c r="B151" s="36"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="32">
-        <v>43580</v>
-      </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="D152" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="33"/>
+      <c r="A153" s="35"/>
       <c r="B153" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="D153" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="33"/>
+      <c r="A154" s="35"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="33"/>
+      <c r="A155" s="35"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="33"/>
+      <c r="A156" s="35"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="32">
+      <c r="A157" s="34">
         <v>43587</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="35"/>
+      <c r="B158" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C158" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="35"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="35"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="35"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="34">
+        <v>43594</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C162" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="33"/>
-      <c r="B158" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="33"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="33"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="33"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="32">
-        <v>43594</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="33"/>
+      <c r="A163" s="35"/>
       <c r="B163" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="33"/>
+      <c r="A164" s="35"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="33"/>
+      <c r="A165" s="35"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="33"/>
+      <c r="A166" s="35"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="32">
+      <c r="A167" s="34">
         <v>43601</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="33"/>
+      <c r="A168" s="35"/>
       <c r="B168" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="33"/>
+      <c r="A169" s="35"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="33"/>
+      <c r="A170" s="35"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="33"/>
+      <c r="A171" s="35"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="32">
+      <c r="A172" s="34">
         <v>43608</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D172" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="33"/>
+      <c r="A173" s="35"/>
       <c r="B173" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="D173" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="33"/>
+      <c r="A174" s="35"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="33"/>
+      <c r="A175" s="35"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="33"/>
+      <c r="A176" s="35"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="32">
+      <c r="A177" s="34">
         <v>43615</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="35"/>
+      <c r="B178" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="35"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="35"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="35"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="34">
+        <v>43622</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="35"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="35"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="35"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="35"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="34">
+        <v>43629</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C177" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="33"/>
-      <c r="B178" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="33"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="33"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="33"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="32">
-        <v>43622</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="33"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="33"/>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="33"/>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="33"/>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="32">
-        <v>43629</v>
-      </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="D187" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="35"/>
+      <c r="B188" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D187" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="33"/>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="D188" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="33"/>
+      <c r="A189" s="35"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="33"/>
+      <c r="A190" s="35"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="33"/>
+      <c r="A191" s="35"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="32">
+      <c r="A192" s="34">
         <v>43636</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="35"/>
+      <c r="B193" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="35"/>
+      <c r="B194" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="33"/>
-      <c r="B193" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="33"/>
-      <c r="B194" s="2" t="s">
+      <c r="D194" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="35"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="35"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="33"/>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="33"/>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="32" t="s">
+      <c r="B197" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="35"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="35"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="35"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="35"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C197" s="12" t="s">
+      <c r="B202" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="35"/>
+      <c r="B203" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D197" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="33"/>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="33"/>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="33"/>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="33"/>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D202" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="33"/>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="D203" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="35"/>
+      <c r="B204" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C204" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D203" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="33"/>
-      <c r="B204" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="D204" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="33"/>
+      <c r="A205" s="35"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="33"/>
+      <c r="A206" s="35"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="32">
+      <c r="A207" s="34">
         <v>43657</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C207" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="D207" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="35"/>
+      <c r="B208" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D207" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="33"/>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="D208" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="35"/>
+      <c r="B209" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D208" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="33"/>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="D209" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="35"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="35"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="34">
+        <v>43664</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D209" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="33"/>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="33"/>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="32">
-        <v>43664</v>
-      </c>
-      <c r="B212" s="2" t="s">
+      <c r="C212" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="D212" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="35"/>
+      <c r="B213" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D212" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="33"/>
-      <c r="B213" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D213" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="33"/>
+      <c r="A214" s="35"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="33"/>
+      <c r="A215" s="35"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="33"/>
+      <c r="A216" s="35"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="32">
+      <c r="A217" s="34">
         <v>43671</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C217" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C217" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="D217" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="33"/>
-      <c r="B218" s="66" t="s">
+      <c r="A218" s="35"/>
+      <c r="B218" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="35"/>
+      <c r="B219" t="s">
+        <v>249</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="35"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="35"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="34">
+        <v>43678</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D218" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="33"/>
-      <c r="B219" t="s">
-        <v>250</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D219" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="33"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="33"/>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="32">
-        <v>43678</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C222" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D222" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="33"/>
+      <c r="A223" s="35"/>
       <c r="B223" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D223" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="33"/>
+      <c r="A224" s="35"/>
       <c r="B224" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D224" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="33"/>
+      <c r="A225" s="35"/>
       <c r="B225" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D225" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="35"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="34">
+        <v>43685</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C225" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D225" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="33"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="32">
-        <v>43685</v>
-      </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="D227" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="35"/>
+      <c r="B228" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="35"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="35"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="35"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="34">
+        <v>43692</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C232" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D227" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="33"/>
-      <c r="B228" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C228" s="12" t="s">
+      <c r="D232" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="35"/>
+      <c r="B233" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D228" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="33"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="33"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="33"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="32">
-        <v>43692</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C232" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D232" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="33"/>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="D233" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="33"/>
+      <c r="A234" s="35"/>
       <c r="B234" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C234" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="D234" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="35"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="35"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="34">
+        <v>43699</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D234" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="33"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="33"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="32">
-        <v>43699</v>
-      </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="D237" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="35"/>
+      <c r="B238" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D237" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="33"/>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="D238" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="33"/>
+      <c r="A239" s="35"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="33"/>
+      <c r="A240" s="35"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="33"/>
+      <c r="A241" s="35"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="32">
+      <c r="A242" s="34">
         <v>43706</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="35"/>
+      <c r="B243" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C242" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D242" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="33"/>
-      <c r="B243" s="2" t="s">
+      <c r="C243" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="D243" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="33"/>
+      <c r="A244" s="35"/>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="33"/>
+      <c r="A245" s="35"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="33"/>
+      <c r="A246" s="35"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="32">
+      <c r="A247" s="34">
         <v>43713</v>
       </c>
+      <c r="B247" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="33"/>
+      <c r="A248" s="35"/>
+      <c r="D248" s="21" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="33"/>
+      <c r="A249" s="35"/>
+      <c r="D249" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="33"/>
+      <c r="A250" s="35"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="33"/>
+      <c r="A251" s="35"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="32">
+      <c r="A252" s="34">
         <v>43720</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="33"/>
+      <c r="A253" s="35"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="33"/>
+      <c r="A254" s="35"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="33"/>
+      <c r="A255" s="35"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="33"/>
+      <c r="A256" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A247:A251"/>
-    <mergeCell ref="A252:A256"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B7:C11"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A227:A231"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="B62:B76"/>
@@ -3620,24 +3648,46 @@
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="A252:A256"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
     <mergeCell ref="A152:A156"/>
     <mergeCell ref="A157:A161"/>
     <mergeCell ref="A162:A166"/>
     <mergeCell ref="A167:A171"/>
     <mergeCell ref="A172:A176"/>
     <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A192:A196"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A227:A231"/>
-    <mergeCell ref="A232:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="A212:A216"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A222:A226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3645,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F850A-0E78-C646-BC9E-A89257B9BA4F}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3665,25 +3715,25 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -3693,7 +3743,7 @@
     <row r="2" spans="1:12">
       <c r="A2" s="6"/>
       <c r="B2" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B2&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
@@ -3704,14 +3754,14 @@
         <v>3</v>
       </c>
       <c r="E2" s="31">
-        <f>D2</f>
+        <f>D2/COUNT(C2)</f>
         <v>3</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3719,29 +3769,29 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B3&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="61">
         <f>SUM(C3:C7)</f>
         <v>30</v>
       </c>
-      <c r="E3" s="64">
-        <f>D3/4</f>
-        <v>7.5</v>
+      <c r="E3" s="66">
+        <f>D3/COUNT(C3:C7)</f>
+        <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3749,21 +3799,21 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B4&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>6</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3771,21 +3821,21 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B5&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>8</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3793,21 +3843,21 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B6&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>4</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="64"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3815,21 +3865,21 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B7&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>11</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3837,7 +3887,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="60">
+      <c r="A8" s="67">
         <v>2015</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3847,23 +3897,23 @@
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B8&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>9</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="62">
         <f>SUM(C8:C9)</f>
         <v>19</v>
       </c>
-      <c r="E8" s="64">
-        <f>D8/2</f>
+      <c r="E8" s="66">
+        <f>D8/COUNT(C8:C9)</f>
         <v>9.5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="60"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -3871,97 +3921,97 @@
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B9&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>10</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <v>2016</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="C10">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B10&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="61">
+        <v>2</v>
+      </c>
+      <c r="D10" s="63">
         <f>SUM(C10:C16)</f>
-        <v>25</v>
-      </c>
-      <c r="E10" s="64">
-        <f>D10/7</f>
-        <v>3.5714285714285716</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="66">
+        <f>D10/COUNT(C10:C16)</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B11&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>2</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="61"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B12&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>2</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="61"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B13&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="64"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
@@ -3969,399 +4019,454 @@
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B14&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>3</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B15&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>14</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="64"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="66"/>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B16&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>0</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="66"/>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="62">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="64">
         <v>2017</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B17&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>2</v>
       </c>
-      <c r="D17" s="62">
-        <f>SUM(C17:C25)</f>
-        <v>20</v>
-      </c>
-      <c r="E17" s="64">
-        <f>D17/10</f>
-        <v>2</v>
+      <c r="D17" s="64">
+        <f>SUM(C17:C26)</f>
+        <v>21</v>
+      </c>
+      <c r="E17" s="66">
+        <f>D17/COUNT(C17:C26)</f>
+        <v>2.1</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="62"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="64"/>
       <c r="B18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B18&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="66"/>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="62"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="64"/>
       <c r="B19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B19&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>3</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="62"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="64"/>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B20&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>2</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="66"/>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="H20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="64"/>
       <c r="B21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B21&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="66"/>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="62"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="64"/>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B22&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>3</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="66"/>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="H22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="64"/>
       <c r="B23" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B23&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>4</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="66"/>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="H23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="64"/>
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B24&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="64"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="66"/>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="62"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="64"/>
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B25&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>3</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="66"/>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="63">
-        <v>2018</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="64"/>
       <c r="B26" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B26&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="63">
-        <f>SUM(C26:C33)</f>
-        <v>10</v>
-      </c>
-      <c r="E26" s="64">
-        <f>D26/8</f>
-        <v>1.25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="63"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="65">
+        <v>2018</v>
+      </c>
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B27&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>2</v>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="65">
+        <f>SUM(C27:C34)</f>
+        <v>10</v>
+      </c>
+      <c r="E27" s="66">
+        <f>D27/COUNT(C27:C34)</f>
+        <v>1.25</v>
+      </c>
       <c r="F27" t="s">
         <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="63"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="65"/>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B28&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>2</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="63"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="65"/>
       <c r="B29" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B29&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="63"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="65"/>
       <c r="B30" s="7" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C30">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B30&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>1</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="F30" t="s">
         <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="63"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="65"/>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="C31">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B31&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>2</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
       <c r="F31" t="s">
         <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="63"/>
+        <v>220</v>
+      </c>
+      <c r="H31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="65"/>
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B32&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="63"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B33&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
         <v>1</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="D47">
-        <f>SUM(D3:D33)</f>
-        <v>104</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="65"/>
+      <c r="B34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B34&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="69">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35">
+        <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B35&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="68">
+        <f>SUM(C35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="70">
+        <f>(D35/COUNT(C35))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="D48">
+        <f>SUM(D3:D34)</f>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B26:B33">
-    <sortCondition ref="B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B27:B34">
+    <sortCondition ref="B27"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="E17:E26"/>
+    <mergeCell ref="E27:E34"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="D27:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4382,38 +4487,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;A2&amp;"*", "*"&amp;Presenters!F:F&amp;"*"))))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <f>SUMIF(Presenters!F:F,A2,Presenters!C:C)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" ref="D2:D7" si="0">(C2/B2)</f>
-        <v>2.875</v>
+        <v>2.7222222222222223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;A3&amp;"*", "*"&amp;Presenters!F:F&amp;"*"))))</f>
@@ -4430,7 +4535,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;A4&amp;"*", "*"&amp;Presenters!F:F&amp;"*"))))</f>
@@ -4438,16 +4543,16 @@
       </c>
       <c r="C4">
         <f>SUMIF(Presenters!F:F,A4,Presenters!C:C)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;A5&amp;"*", "*"&amp;Presenters!F:F&amp;"*"))))</f>
@@ -4464,7 +4569,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;A6&amp;"*", "*"&amp;Presenters!F:F&amp;"*"))))</f>
@@ -4481,7 +4586,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;A7&amp;"*", "*"&amp;Presenters!F:F&amp;"*"))))</f>
@@ -4501,15 +4606,15 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C7)</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" s="17"/>
     </row>

--- a/JC_Schedule.xlsx
+++ b/JC_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisakelsey/Documents/SouthamptonAstroJournalClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9325C90-F97D-C949-8B9D-A2E43C298BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7969505-57EA-6C42-9FA1-4A0BB2090092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10960" yWindow="1640" windowWidth="36600" windowHeight="21680" activeTab="1" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="287">
   <si>
     <t>Date</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -3698,7 +3704,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3735,6 +3741,9 @@
       <c r="G1" s="11" t="s">
         <v>219</v>
       </c>
+      <c r="H1" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="18"/>
@@ -3763,6 +3772,9 @@
       <c r="G2" s="7" t="s">
         <v>202</v>
       </c>
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="18"/>
@@ -3793,6 +3805,9 @@
       <c r="G3" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H3" t="s">
+        <v>286</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="18"/>
@@ -3815,6 +3830,9 @@
       <c r="G4" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="18"/>
@@ -3837,6 +3855,9 @@
       <c r="G5" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="18"/>
@@ -3859,6 +3880,9 @@
       <c r="G6" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="18"/>
@@ -3881,6 +3905,9 @@
       <c r="G7" s="7" t="s">
         <v>218</v>
       </c>
+      <c r="H7" t="s">
+        <v>286</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="18"/>
@@ -3911,6 +3938,9 @@
       <c r="G8" s="7" t="s">
         <v>220</v>
       </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="67"/>
@@ -3929,6 +3959,9 @@
       <c r="G9" s="7" t="s">
         <v>220</v>
       </c>
+      <c r="H9" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="63">
@@ -3954,6 +3987,9 @@
       </c>
       <c r="G10" s="7" t="s">
         <v>220</v>
+      </c>
+      <c r="H10" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3973,6 +4009,9 @@
       <c r="G11" s="7" t="s">
         <v>220</v>
       </c>
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="63"/>
@@ -3991,6 +4030,9 @@
       <c r="G12" t="s">
         <v>137</v>
       </c>
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="63"/>
@@ -4009,6 +4051,9 @@
       <c r="G13" t="s">
         <v>220</v>
       </c>
+      <c r="H13" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="63"/>
@@ -4027,6 +4072,9 @@
       <c r="G14" t="s">
         <v>220</v>
       </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="63"/>
@@ -4045,6 +4093,9 @@
       <c r="G15" t="s">
         <v>220</v>
       </c>
+      <c r="H15" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="63"/>
@@ -4063,6 +4114,9 @@
       <c r="G16" t="s">
         <v>137</v>
       </c>
+      <c r="H16" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="64">
@@ -4088,6 +4142,9 @@
       </c>
       <c r="G17" t="s">
         <v>220</v>
+      </c>
+      <c r="H17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4107,6 +4164,9 @@
       <c r="G18" t="s">
         <v>138</v>
       </c>
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="64"/>
@@ -4125,6 +4185,9 @@
       <c r="G19" t="s">
         <v>138</v>
       </c>
+      <c r="H19" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="64"/>
@@ -4164,6 +4227,9 @@
       <c r="G21" t="s">
         <v>220</v>
       </c>
+      <c r="H21" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="64"/>
@@ -4223,6 +4289,9 @@
       <c r="G24" t="s">
         <v>220</v>
       </c>
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="64"/>
@@ -4241,6 +4310,9 @@
       <c r="G25" t="s">
         <v>220</v>
       </c>
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="64"/>
@@ -4259,6 +4331,9 @@
       <c r="G26" t="s">
         <v>220</v>
       </c>
+      <c r="H26" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="65">
@@ -4284,6 +4359,9 @@
       </c>
       <c r="G27" t="s">
         <v>220</v>
+      </c>
+      <c r="H27" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4303,6 +4381,9 @@
       <c r="G28" t="s">
         <v>220</v>
       </c>
+      <c r="H28" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="65"/>
@@ -4321,6 +4402,9 @@
       <c r="G29" t="s">
         <v>220</v>
       </c>
+      <c r="H29" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="65"/>
@@ -4339,6 +4423,9 @@
       <c r="G30" t="s">
         <v>220</v>
       </c>
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="65"/>
@@ -4378,8 +4465,11 @@
       <c r="G32" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="65"/>
       <c r="B33" s="7" t="s">
         <v>32</v>
@@ -4396,8 +4486,11 @@
       <c r="G33" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="65"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
@@ -4414,8 +4507,11 @@
       <c r="G34" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="69">
         <v>2019</v>
       </c>
@@ -4440,8 +4536,11 @@
       <c r="G35" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="D48">
         <f>SUM(D3:D34)</f>
         <v>106</v>

--- a/JC_Schedule.xlsx
+++ b/JC_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisakelsey/Documents/SouthamptonAstroJournalClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7969505-57EA-6C42-9FA1-4A0BB2090092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAC8A8-BB06-474E-B637-46E83524BE9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10960" yWindow="1640" windowWidth="36600" windowHeight="21680" activeTab="1" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
   </bookViews>
@@ -903,7 +903,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3704,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/JC_Schedule.xlsx
+++ b/JC_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisakelsey/Documents/SouthamptonAstroJournalClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAC8A8-BB06-474E-B637-46E83524BE9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC9A815-E03B-1640-8A58-755337338440}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10960" yWindow="1640" windowWidth="36600" windowHeight="21680" activeTab="1" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="289">
   <si>
     <t>Date</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Own JC with Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own JC with Matt </t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3710,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4228,7 +4234,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4508,7 +4514,7 @@
         <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:8">

--- a/JC_Schedule.xlsx
+++ b/JC_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisakelsey/Documents/SouthamptonAstroJournalClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC9A815-E03B-1640-8A58-755337338440}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F68C23-927D-944E-94F6-F9289ADD8998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="1640" windowWidth="36600" windowHeight="21680" activeTab="1" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
+    <workbookView xWindow="10960" yWindow="1640" windowWidth="36600" windowHeight="21680" xr2:uid="{04D80FDB-8FFA-AE49-88C4-52D9738D9BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="291">
   <si>
     <t>Date</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t xml:space="preserve">Own JC with Matt </t>
+  </si>
+  <si>
+    <t>New evidence for the ubiquity of prominent polar dust emission in AGN on tens of parsec scales</t>
+  </si>
+  <si>
+    <t> https://arxiv.org/abs/1908.03552</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089DE34-72B4-2540-AE8D-E1699D9CC6B2}">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3602,15 +3608,18 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="35"/>
+      <c r="B248" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="D248" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="35"/>
-      <c r="D249" s="21" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="35"/>
@@ -3709,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F850A-0E78-C646-BC9E-A89257B9BA4F}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -4137,11 +4146,11 @@
       </c>
       <c r="D17" s="64">
         <f>SUM(C17:C26)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="66">
         <f>D17/COUNT(C17:C26)</f>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -4223,7 +4232,7 @@
       </c>
       <c r="C21">
         <f xml:space="preserve"> SUMPRODUCT( -- (ISNUMBER(FIND("*"&amp;B21&amp;"*", "*"&amp;Schedule!D:D&amp;"*"))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="66"/>
@@ -4549,7 +4558,7 @@
     <row r="48" spans="1:8">
       <c r="D48">
         <f>SUM(D3:D34)</f>
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4614,11 +4623,11 @@
       </c>
       <c r="C2">
         <f>SUMIF(Presenters!F:F,A2,Presenters!C:C)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" ref="D2:D7" si="0">(C2/B2)</f>
-        <v>2.7222222222222223</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4719,7 +4728,7 @@
       </c>
       <c r="C9">
         <f>SUM(C2:C7)</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="17"/>
     </row>
